--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,142 +374,107 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>all_patients</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0 - 9</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0 - 9</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10 - 19</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20 - 29</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10 - 19</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>30 - 39</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>20 - 29</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>40 - 49</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>50 - 59</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>60 - 69</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>70 - 79</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>80 - 89</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>30 - 39</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>40 - 49</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>50 - 59</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>60 - 69</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>70 - 79</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>80 - 89</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>&gt;90</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="B11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -379,7 +379,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>0 - 9</t>
         </is>
@@ -389,7 +389,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>10 - 19</t>
         </is>
@@ -399,7 +399,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>20 - 29</t>
         </is>
@@ -409,7 +409,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>30 - 39</t>
         </is>
@@ -419,7 +419,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>40 - 49</t>
         </is>
@@ -429,7 +429,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>50 - 59</t>
         </is>
@@ -439,7 +439,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>60 - 69</t>
         </is>
@@ -449,7 +449,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>70 - 79</t>
         </is>
@@ -459,7 +459,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>80 - 89</t>
         </is>
@@ -469,7 +469,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>&gt;90</t>
         </is>

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13">

--- a/data/age-distribution.xlsx
+++ b/data/age-distribution.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14">
